--- a/docs/RFQ FORM-FTQ25106_報價Excel Form.xlsx
+++ b/docs/RFQ FORM-FTQ25106_報價Excel Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\訓練資料-本機備註\FTQ25106 Solaire Parañaque A&amp;A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdns-user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFE4801-9C7B-4876-BA71-3E13213F2547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA52048-8BE6-4DFE-8CDA-C7B782EE0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="726" yWindow="678" windowWidth="21866" windowHeight="11302" xr2:uid="{ECF994D3-B6C7-494F-9881-97D56CF48CAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ECF994D3-B6C7-494F-9881-97D56CF48CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote W Fbric (2)" sheetId="2" r:id="rId1"/>
@@ -607,7 +607,7 @@
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;Pcs&quot;"/>
     <numFmt numFmtId="179" formatCode="#,##0&quot; Containers&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,89 +1129,89 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="39" fontId="12" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1223,28 +1223,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="182" formatCode="[$AED]\ #,##0.00"/>
+      <numFmt numFmtId="181" formatCode="[$AED]\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode="&quot;NT$&quot;#,##0"/>
+      <numFmt numFmtId="182" formatCode="&quot;NT$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode="[$€-2]\ #,##0.00"/>
+      <numFmt numFmtId="183" formatCode="[$€-2]\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="[$AUD]\ #,##0.00"/>
+      <numFmt numFmtId="184" formatCode="[$AUD]\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="[$¥-804]#,##0.00"/>
+      <numFmt numFmtId="185" formatCode="[$¥-804]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="187" formatCode="[$SGD]\ #,##0.00"/>
+      <numFmt numFmtId="186" formatCode="[$SGD]\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="188" formatCode="[$HKD]\ #,##0.0"/>
+      <numFmt numFmtId="187" formatCode="[$HKD]\ #,##0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1813,67 +1813,67 @@
   <dimension ref="A1:O312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.15" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="15.5" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="3" customWidth="1"/>
-    <col min="12" max="15" width="25.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" style="3" customWidth="1"/>
+    <col min="12" max="15" width="25.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+    <row r="1" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="G1" s="54"/>
       <c r="H1" s="51"/>
       <c r="I1" s="53"/>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="H2" s="51"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+    </row>
+    <row r="3" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="G3" s="54"/>
       <c r="H3" s="51"/>
       <c r="I3" s="53"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-    </row>
-    <row r="4" spans="1:15" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="52"/>
       <c r="G4" s="3"/>
       <c r="H4" s="51"/>
@@ -1885,85 +1885,85 @@
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="48"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="F7" s="43"/>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="45" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="43"/>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="s">
+      <c r="I8" s="70"/>
+      <c r="J8" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F9" s="43"/>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="62">
+      <c r="I9" s="70"/>
+      <c r="J9" s="69">
         <v>1</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="1:15" ht="8.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F10" s="43"/>
       <c r="G10" s="3"/>
       <c r="I10" s="1"/>
@@ -1974,108 +1974,108 @@
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60" t="s">
+      <c r="I11" s="70"/>
+      <c r="J11" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60" t="s">
+      <c r="I12" s="70"/>
+      <c r="J12" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60" t="s">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="60" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-    </row>
-    <row r="15" spans="1:15" ht="8.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="75" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="38" t="s">
@@ -2084,49 +2084,49 @@
       <c r="I16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="56" t="s">
+      <c r="M16" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="68"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="36" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-    </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+    </row>
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>1</v>
       </c>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>2</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="D19" s="55" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="56" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="32">
@@ -2204,7 +2204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -2221,7 +2221,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -2238,7 +2238,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -2255,7 +2255,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -2272,7 +2272,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A24" s="35"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -2289,7 +2289,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A25" s="35"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -2306,7 +2306,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -2323,7 +2323,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A27" s="35"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -2340,7 +2340,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
     </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="35"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -2357,7 +2357,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A29" s="35"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -2374,7 +2374,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A30" s="35"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -2391,7 +2391,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A31" s="35"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -2408,7 +2408,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A32" s="35"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -2425,7 +2425,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A33" s="35"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -2442,7 +2442,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A34" s="35"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -2459,7 +2459,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A35" s="35"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -2476,7 +2476,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A36" s="35"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -2493,7 +2493,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="35"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -2510,7 +2510,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -2527,7 +2527,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="35"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -2544,7 +2544,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
     </row>
-    <row r="40" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="35"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -2561,7 +2561,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
     </row>
-    <row r="41" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A41" s="35"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -2578,7 +2578,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
     </row>
-    <row r="42" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="35"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -2595,7 +2595,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
     </row>
-    <row r="43" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="35"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -2612,7 +2612,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
     </row>
-    <row r="44" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="35"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -2629,7 +2629,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="35"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -2646,7 +2646,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
     </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="35"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -2663,7 +2663,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A47" s="35"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -2680,7 +2680,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A48" s="35"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -2697,7 +2697,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A49" s="35"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -2714,7 +2714,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2731,7 +2731,7 @@
       <c r="N50" s="28"/>
       <c r="O50" s="28"/>
     </row>
-    <row r="51" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A51" s="35"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -2748,7 +2748,7 @@
       <c r="N51" s="28"/>
       <c r="O51" s="28"/>
     </row>
-    <row r="52" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A52" s="35"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -2765,7 +2765,7 @@
       <c r="N52" s="28"/>
       <c r="O52" s="28"/>
     </row>
-    <row r="53" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A53" s="35"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -2782,7 +2782,7 @@
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
     </row>
-    <row r="54" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A54" s="35"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -2799,7 +2799,7 @@
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
     </row>
-    <row r="55" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A55" s="35"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -2816,7 +2816,7 @@
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
     </row>
-    <row r="56" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A56" s="35"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -2833,7 +2833,7 @@
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
     </row>
-    <row r="57" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A57" s="35"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -2850,7 +2850,7 @@
       <c r="N57" s="28"/>
       <c r="O57" s="28"/>
     </row>
-    <row r="58" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A58" s="35"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -2867,7 +2867,7 @@
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
     </row>
-    <row r="59" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A59" s="35"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -2884,7 +2884,7 @@
       <c r="N59" s="28"/>
       <c r="O59" s="28"/>
     </row>
-    <row r="60" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A60" s="35"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -2901,7 +2901,7 @@
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
     </row>
-    <row r="61" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A61" s="35"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -2918,7 +2918,7 @@
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
     </row>
-    <row r="62" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A62" s="35"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -2935,7 +2935,7 @@
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
     </row>
-    <row r="63" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A63" s="35"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -2952,7 +2952,7 @@
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
     </row>
-    <row r="64" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A64" s="35"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -2969,7 +2969,7 @@
       <c r="N64" s="28"/>
       <c r="O64" s="28"/>
     </row>
-    <row r="65" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A65" s="35"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -2986,7 +2986,7 @@
       <c r="N65" s="28"/>
       <c r="O65" s="28"/>
     </row>
-    <row r="66" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -3003,7 +3003,7 @@
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
     </row>
-    <row r="67" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A67" s="35"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -3020,7 +3020,7 @@
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
     </row>
-    <row r="68" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A68" s="35"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -3037,7 +3037,7 @@
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A69" s="35"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -3054,7 +3054,7 @@
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
     </row>
-    <row r="70" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A70" s="35"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -3071,7 +3071,7 @@
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
     </row>
-    <row r="71" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A71" s="35"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -3088,7 +3088,7 @@
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
     </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A72" s="35"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -3105,7 +3105,7 @@
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
     </row>
-    <row r="73" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A73" s="35"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -3122,7 +3122,7 @@
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
     </row>
-    <row r="74" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A74" s="35"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -3139,7 +3139,7 @@
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
     </row>
-    <row r="75" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -3156,7 +3156,7 @@
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
     </row>
-    <row r="76" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A76" s="35"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -3173,7 +3173,7 @@
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
     </row>
-    <row r="77" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="35"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -3190,7 +3190,7 @@
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
     </row>
-    <row r="78" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A78" s="35"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -3207,7 +3207,7 @@
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
     </row>
-    <row r="79" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -3224,7 +3224,7 @@
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
     </row>
-    <row r="80" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A80" s="35"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -3241,7 +3241,7 @@
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
     </row>
-    <row r="81" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A81" s="35"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -3258,7 +3258,7 @@
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
     </row>
-    <row r="82" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A82" s="35"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -3275,7 +3275,7 @@
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -3292,7 +3292,7 @@
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
     </row>
-    <row r="84" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A84" s="35"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -3309,7 +3309,7 @@
       <c r="N84" s="28"/>
       <c r="O84" s="28"/>
     </row>
-    <row r="85" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A85" s="35"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -3326,7 +3326,7 @@
       <c r="N85" s="28"/>
       <c r="O85" s="28"/>
     </row>
-    <row r="86" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A86" s="35"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -3343,7 +3343,7 @@
       <c r="N86" s="28"/>
       <c r="O86" s="28"/>
     </row>
-    <row r="87" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A87" s="35"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -3360,7 +3360,7 @@
       <c r="N87" s="28"/>
       <c r="O87" s="28"/>
     </row>
-    <row r="88" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A88" s="35"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -3377,7 +3377,7 @@
       <c r="N88" s="28"/>
       <c r="O88" s="28"/>
     </row>
-    <row r="89" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A89" s="35"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -3394,7 +3394,7 @@
       <c r="N89" s="28"/>
       <c r="O89" s="28"/>
     </row>
-    <row r="90" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -3411,7 +3411,7 @@
       <c r="N90" s="28"/>
       <c r="O90" s="28"/>
     </row>
-    <row r="91" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A91" s="35"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -3428,7 +3428,7 @@
       <c r="N91" s="28"/>
       <c r="O91" s="28"/>
     </row>
-    <row r="92" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A92" s="35"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -3445,7 +3445,7 @@
       <c r="N92" s="28"/>
       <c r="O92" s="28"/>
     </row>
-    <row r="93" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A93" s="35"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -3462,7 +3462,7 @@
       <c r="N93" s="28"/>
       <c r="O93" s="28"/>
     </row>
-    <row r="94" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A94" s="35"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -3479,7 +3479,7 @@
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A95" s="35"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -3496,7 +3496,7 @@
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
     </row>
-    <row r="96" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -3513,7 +3513,7 @@
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
     </row>
-    <row r="97" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A97" s="35"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -3530,7 +3530,7 @@
       <c r="N97" s="28"/>
       <c r="O97" s="28"/>
     </row>
-    <row r="98" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A98" s="35"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -3547,7 +3547,7 @@
       <c r="N98" s="28"/>
       <c r="O98" s="28"/>
     </row>
-    <row r="99" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -3564,7 +3564,7 @@
       <c r="N99" s="28"/>
       <c r="O99" s="28"/>
     </row>
-    <row r="100" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A100" s="35"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -3581,7 +3581,7 @@
       <c r="N100" s="28"/>
       <c r="O100" s="28"/>
     </row>
-    <row r="101" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A101" s="35"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
@@ -3598,7 +3598,7 @@
       <c r="N101" s="28"/>
       <c r="O101" s="28"/>
     </row>
-    <row r="102" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A102" s="35"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -3615,7 +3615,7 @@
       <c r="N102" s="28"/>
       <c r="O102" s="28"/>
     </row>
-    <row r="103" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A103" s="35"/>
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
@@ -3632,7 +3632,7 @@
       <c r="N103" s="28"/>
       <c r="O103" s="28"/>
     </row>
-    <row r="104" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A104" s="35"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -3649,7 +3649,7 @@
       <c r="N104" s="28"/>
       <c r="O104" s="28"/>
     </row>
-    <row r="105" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A105" s="35"/>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
@@ -3666,7 +3666,7 @@
       <c r="N105" s="28"/>
       <c r="O105" s="28"/>
     </row>
-    <row r="106" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A106" s="35"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -3683,7 +3683,7 @@
       <c r="N106" s="28"/>
       <c r="O106" s="28"/>
     </row>
-    <row r="107" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A107" s="35"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -3700,7 +3700,7 @@
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
     </row>
-    <row r="108" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A108" s="35"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -3717,7 +3717,7 @@
       <c r="N108" s="28"/>
       <c r="O108" s="28"/>
     </row>
-    <row r="109" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A109" s="35"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
@@ -3734,7 +3734,7 @@
       <c r="N109" s="28"/>
       <c r="O109" s="28"/>
     </row>
-    <row r="110" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A110" s="35"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -3751,7 +3751,7 @@
       <c r="N110" s="28"/>
       <c r="O110" s="28"/>
     </row>
-    <row r="111" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A111" s="35"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
@@ -3768,7 +3768,7 @@
       <c r="N111" s="28"/>
       <c r="O111" s="28"/>
     </row>
-    <row r="112" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A112" s="35"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -3785,7 +3785,7 @@
       <c r="N112" s="28"/>
       <c r="O112" s="28"/>
     </row>
-    <row r="113" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A113" s="35"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
@@ -3802,7 +3802,7 @@
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
     </row>
-    <row r="114" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A114" s="35"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -3819,7 +3819,7 @@
       <c r="N114" s="28"/>
       <c r="O114" s="28"/>
     </row>
-    <row r="115" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A115" s="35"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
@@ -3836,7 +3836,7 @@
       <c r="N115" s="28"/>
       <c r="O115" s="28"/>
     </row>
-    <row r="116" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A116" s="35"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -3853,7 +3853,7 @@
       <c r="N116" s="28"/>
       <c r="O116" s="28"/>
     </row>
-    <row r="117" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A117" s="35"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
@@ -3870,7 +3870,7 @@
       <c r="N117" s="28"/>
       <c r="O117" s="28"/>
     </row>
-    <row r="118" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A118" s="35"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -3887,7 +3887,7 @@
       <c r="N118" s="28"/>
       <c r="O118" s="28"/>
     </row>
-    <row r="119" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A119" s="35"/>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
@@ -3904,7 +3904,7 @@
       <c r="N119" s="28"/>
       <c r="O119" s="28"/>
     </row>
-    <row r="120" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A120" s="35"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -3921,7 +3921,7 @@
       <c r="N120" s="28"/>
       <c r="O120" s="28"/>
     </row>
-    <row r="121" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A121" s="35"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
@@ -3938,7 +3938,7 @@
       <c r="N121" s="28"/>
       <c r="O121" s="28"/>
     </row>
-    <row r="122" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A122" s="35"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -3955,7 +3955,7 @@
       <c r="N122" s="28"/>
       <c r="O122" s="28"/>
     </row>
-    <row r="123" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A123" s="35"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
@@ -3972,7 +3972,7 @@
       <c r="N123" s="28"/>
       <c r="O123" s="28"/>
     </row>
-    <row r="124" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A124" s="35"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -3989,7 +3989,7 @@
       <c r="N124" s="28"/>
       <c r="O124" s="28"/>
     </row>
-    <row r="125" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A125" s="35"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -4006,7 +4006,7 @@
       <c r="N125" s="28"/>
       <c r="O125" s="28"/>
     </row>
-    <row r="126" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A126" s="35"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -4023,7 +4023,7 @@
       <c r="N126" s="28"/>
       <c r="O126" s="28"/>
     </row>
-    <row r="127" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A127" s="35"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
@@ -4040,7 +4040,7 @@
       <c r="N127" s="28"/>
       <c r="O127" s="28"/>
     </row>
-    <row r="128" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A128" s="35"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -4057,7 +4057,7 @@
       <c r="N128" s="28"/>
       <c r="O128" s="28"/>
     </row>
-    <row r="129" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A129" s="35"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
@@ -4074,7 +4074,7 @@
       <c r="N129" s="28"/>
       <c r="O129" s="28"/>
     </row>
-    <row r="130" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A130" s="35"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -4091,7 +4091,7 @@
       <c r="N130" s="28"/>
       <c r="O130" s="28"/>
     </row>
-    <row r="131" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="35"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
@@ -4108,7 +4108,7 @@
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
     </row>
-    <row r="132" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="35"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -4125,7 +4125,7 @@
       <c r="N132" s="28"/>
       <c r="O132" s="28"/>
     </row>
-    <row r="133" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="35"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
@@ -4142,7 +4142,7 @@
       <c r="N133" s="28"/>
       <c r="O133" s="28"/>
     </row>
-    <row r="134" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="35"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -4159,7 +4159,7 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
     </row>
-    <row r="135" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A135" s="35"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
@@ -4176,7 +4176,7 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
     </row>
-    <row r="136" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A136" s="35"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -4193,7 +4193,7 @@
       <c r="N136" s="28"/>
       <c r="O136" s="28"/>
     </row>
-    <row r="137" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A137" s="35"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
@@ -4210,7 +4210,7 @@
       <c r="N137" s="28"/>
       <c r="O137" s="28"/>
     </row>
-    <row r="138" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A138" s="35"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -4227,7 +4227,7 @@
       <c r="N138" s="28"/>
       <c r="O138" s="28"/>
     </row>
-    <row r="139" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A139" s="35"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -4244,7 +4244,7 @@
       <c r="N139" s="28"/>
       <c r="O139" s="28"/>
     </row>
-    <row r="140" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A140" s="35"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -4261,7 +4261,7 @@
       <c r="N140" s="28"/>
       <c r="O140" s="28"/>
     </row>
-    <row r="141" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A141" s="35"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
@@ -4278,7 +4278,7 @@
       <c r="N141" s="28"/>
       <c r="O141" s="28"/>
     </row>
-    <row r="142" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A142" s="35"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -4295,7 +4295,7 @@
       <c r="N142" s="28"/>
       <c r="O142" s="28"/>
     </row>
-    <row r="143" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A143" s="35"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
@@ -4312,7 +4312,7 @@
       <c r="N143" s="28"/>
       <c r="O143" s="28"/>
     </row>
-    <row r="144" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A144" s="35"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -4329,7 +4329,7 @@
       <c r="N144" s="28"/>
       <c r="O144" s="28"/>
     </row>
-    <row r="145" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A145" s="35"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
@@ -4346,7 +4346,7 @@
       <c r="N145" s="28"/>
       <c r="O145" s="28"/>
     </row>
-    <row r="146" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A146" s="35"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -4363,7 +4363,7 @@
       <c r="N146" s="28"/>
       <c r="O146" s="28"/>
     </row>
-    <row r="147" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A147" s="35"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -4380,7 +4380,7 @@
       <c r="N147" s="28"/>
       <c r="O147" s="28"/>
     </row>
-    <row r="148" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A148" s="35"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -4397,7 +4397,7 @@
       <c r="N148" s="28"/>
       <c r="O148" s="28"/>
     </row>
-    <row r="149" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A149" s="35"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
@@ -4414,7 +4414,7 @@
       <c r="N149" s="28"/>
       <c r="O149" s="28"/>
     </row>
-    <row r="150" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A150" s="35"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -4431,7 +4431,7 @@
       <c r="N150" s="28"/>
       <c r="O150" s="28"/>
     </row>
-    <row r="151" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A151" s="35"/>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
@@ -4448,7 +4448,7 @@
       <c r="N151" s="28"/>
       <c r="O151" s="28"/>
     </row>
-    <row r="152" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A152" s="35"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -4465,7 +4465,7 @@
       <c r="N152" s="28"/>
       <c r="O152" s="28"/>
     </row>
-    <row r="153" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A153" s="35"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
@@ -4482,7 +4482,7 @@
       <c r="N153" s="28"/>
       <c r="O153" s="28"/>
     </row>
-    <row r="154" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A154" s="35"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -4499,7 +4499,7 @@
       <c r="N154" s="28"/>
       <c r="O154" s="28"/>
     </row>
-    <row r="155" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A155" s="35"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
@@ -4516,7 +4516,7 @@
       <c r="N155" s="28"/>
       <c r="O155" s="28"/>
     </row>
-    <row r="156" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A156" s="35"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -4533,7 +4533,7 @@
       <c r="N156" s="28"/>
       <c r="O156" s="28"/>
     </row>
-    <row r="157" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A157" s="35"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -4550,7 +4550,7 @@
       <c r="N157" s="28"/>
       <c r="O157" s="28"/>
     </row>
-    <row r="158" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A158" s="35"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -4567,7 +4567,7 @@
       <c r="N158" s="28"/>
       <c r="O158" s="28"/>
     </row>
-    <row r="159" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A159" s="35"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
@@ -4584,7 +4584,7 @@
       <c r="N159" s="28"/>
       <c r="O159" s="28"/>
     </row>
-    <row r="160" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A160" s="35"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -4601,7 +4601,7 @@
       <c r="N160" s="28"/>
       <c r="O160" s="28"/>
     </row>
-    <row r="161" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A161" s="35"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -4618,7 +4618,7 @@
       <c r="N161" s="28"/>
       <c r="O161" s="28"/>
     </row>
-    <row r="162" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A162" s="35"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -4635,7 +4635,7 @@
       <c r="N162" s="28"/>
       <c r="O162" s="28"/>
     </row>
-    <row r="163" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A163" s="35"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
@@ -4652,7 +4652,7 @@
       <c r="N163" s="28"/>
       <c r="O163" s="28"/>
     </row>
-    <row r="164" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A164" s="35"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -4669,7 +4669,7 @@
       <c r="N164" s="28"/>
       <c r="O164" s="28"/>
     </row>
-    <row r="165" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A165" s="35"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
@@ -4686,7 +4686,7 @@
       <c r="N165" s="28"/>
       <c r="O165" s="28"/>
     </row>
-    <row r="166" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A166" s="35"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -4703,7 +4703,7 @@
       <c r="N166" s="28"/>
       <c r="O166" s="28"/>
     </row>
-    <row r="167" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A167" s="35"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -4720,7 +4720,7 @@
       <c r="N167" s="28"/>
       <c r="O167" s="28"/>
     </row>
-    <row r="168" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A168" s="35"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -4737,7 +4737,7 @@
       <c r="N168" s="28"/>
       <c r="O168" s="28"/>
     </row>
-    <row r="169" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A169" s="35"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -4754,7 +4754,7 @@
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
     </row>
-    <row r="170" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A170" s="35"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -4771,7 +4771,7 @@
       <c r="N170" s="28"/>
       <c r="O170" s="28"/>
     </row>
-    <row r="171" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A171" s="35"/>
       <c r="B171" s="33"/>
       <c r="C171" s="33"/>
@@ -4788,7 +4788,7 @@
       <c r="N171" s="28"/>
       <c r="O171" s="28"/>
     </row>
-    <row r="172" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A172" s="35"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -4805,7 +4805,7 @@
       <c r="N172" s="28"/>
       <c r="O172" s="28"/>
     </row>
-    <row r="173" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A173" s="35"/>
       <c r="B173" s="33"/>
       <c r="C173" s="33"/>
@@ -4822,7 +4822,7 @@
       <c r="N173" s="28"/>
       <c r="O173" s="28"/>
     </row>
-    <row r="174" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A174" s="35"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
@@ -4839,7 +4839,7 @@
       <c r="N174" s="28"/>
       <c r="O174" s="28"/>
     </row>
-    <row r="175" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A175" s="35"/>
       <c r="B175" s="33"/>
       <c r="C175" s="33"/>
@@ -4856,7 +4856,7 @@
       <c r="N175" s="28"/>
       <c r="O175" s="28"/>
     </row>
-    <row r="176" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A176" s="35"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
@@ -4873,7 +4873,7 @@
       <c r="N176" s="28"/>
       <c r="O176" s="28"/>
     </row>
-    <row r="177" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A177" s="35"/>
       <c r="B177" s="33"/>
       <c r="C177" s="33"/>
@@ -4890,7 +4890,7 @@
       <c r="N177" s="28"/>
       <c r="O177" s="28"/>
     </row>
-    <row r="178" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A178" s="35"/>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>
@@ -4907,7 +4907,7 @@
       <c r="N178" s="28"/>
       <c r="O178" s="28"/>
     </row>
-    <row r="179" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A179" s="35"/>
       <c r="B179" s="33"/>
       <c r="C179" s="33"/>
@@ -4924,7 +4924,7 @@
       <c r="N179" s="28"/>
       <c r="O179" s="28"/>
     </row>
-    <row r="180" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A180" s="35"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -4941,7 +4941,7 @@
       <c r="N180" s="28"/>
       <c r="O180" s="28"/>
     </row>
-    <row r="181" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A181" s="35"/>
       <c r="B181" s="33"/>
       <c r="C181" s="33"/>
@@ -4958,7 +4958,7 @@
       <c r="N181" s="28"/>
       <c r="O181" s="28"/>
     </row>
-    <row r="182" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A182" s="35"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
@@ -4975,7 +4975,7 @@
       <c r="N182" s="28"/>
       <c r="O182" s="28"/>
     </row>
-    <row r="183" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A183" s="35"/>
       <c r="B183" s="33"/>
       <c r="C183" s="33"/>
@@ -4992,7 +4992,7 @@
       <c r="N183" s="28"/>
       <c r="O183" s="28"/>
     </row>
-    <row r="184" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A184" s="35"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
@@ -5009,7 +5009,7 @@
       <c r="N184" s="28"/>
       <c r="O184" s="28"/>
     </row>
-    <row r="185" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A185" s="35"/>
       <c r="B185" s="33"/>
       <c r="C185" s="33"/>
@@ -5026,7 +5026,7 @@
       <c r="N185" s="28"/>
       <c r="O185" s="28"/>
     </row>
-    <row r="186" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A186" s="35"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
@@ -5043,7 +5043,7 @@
       <c r="N186" s="28"/>
       <c r="O186" s="28"/>
     </row>
-    <row r="187" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A187" s="35"/>
       <c r="B187" s="33"/>
       <c r="C187" s="33"/>
@@ -5060,7 +5060,7 @@
       <c r="N187" s="28"/>
       <c r="O187" s="28"/>
     </row>
-    <row r="188" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A188" s="35"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -5077,7 +5077,7 @@
       <c r="N188" s="28"/>
       <c r="O188" s="28"/>
     </row>
-    <row r="189" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A189" s="35"/>
       <c r="B189" s="33"/>
       <c r="C189" s="33"/>
@@ -5094,7 +5094,7 @@
       <c r="N189" s="28"/>
       <c r="O189" s="28"/>
     </row>
-    <row r="190" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A190" s="35"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
@@ -5111,7 +5111,7 @@
       <c r="N190" s="28"/>
       <c r="O190" s="28"/>
     </row>
-    <row r="191" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A191" s="35"/>
       <c r="B191" s="33"/>
       <c r="C191" s="33"/>
@@ -5128,7 +5128,7 @@
       <c r="N191" s="28"/>
       <c r="O191" s="28"/>
     </row>
-    <row r="192" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A192" s="35"/>
       <c r="B192" s="33"/>
       <c r="C192" s="33"/>
@@ -5145,7 +5145,7 @@
       <c r="N192" s="28"/>
       <c r="O192" s="28"/>
     </row>
-    <row r="193" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A193" s="35"/>
       <c r="B193" s="33"/>
       <c r="C193" s="33"/>
@@ -5162,7 +5162,7 @@
       <c r="N193" s="28"/>
       <c r="O193" s="28"/>
     </row>
-    <row r="194" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A194" s="35"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -5179,7 +5179,7 @@
       <c r="N194" s="28"/>
       <c r="O194" s="28"/>
     </row>
-    <row r="195" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A195" s="35"/>
       <c r="B195" s="33"/>
       <c r="C195" s="33"/>
@@ -5196,7 +5196,7 @@
       <c r="N195" s="28"/>
       <c r="O195" s="28"/>
     </row>
-    <row r="196" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A196" s="35"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
@@ -5213,7 +5213,7 @@
       <c r="N196" s="28"/>
       <c r="O196" s="28"/>
     </row>
-    <row r="197" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A197" s="35"/>
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
@@ -5230,7 +5230,7 @@
       <c r="N197" s="28"/>
       <c r="O197" s="28"/>
     </row>
-    <row r="198" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A198" s="35"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
@@ -5247,7 +5247,7 @@
       <c r="N198" s="28"/>
       <c r="O198" s="28"/>
     </row>
-    <row r="199" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A199" s="35"/>
       <c r="B199" s="33"/>
       <c r="C199" s="33"/>
@@ -5264,7 +5264,7 @@
       <c r="N199" s="28"/>
       <c r="O199" s="28"/>
     </row>
-    <row r="200" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A200" s="35"/>
       <c r="B200" s="33"/>
       <c r="C200" s="33"/>
@@ -5281,7 +5281,7 @@
       <c r="N200" s="28"/>
       <c r="O200" s="28"/>
     </row>
-    <row r="201" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A201" s="35"/>
       <c r="B201" s="33"/>
       <c r="C201" s="33"/>
@@ -5298,7 +5298,7 @@
       <c r="N201" s="28"/>
       <c r="O201" s="28"/>
     </row>
-    <row r="202" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A202" s="35"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
@@ -5315,7 +5315,7 @@
       <c r="N202" s="28"/>
       <c r="O202" s="28"/>
     </row>
-    <row r="203" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A203" s="35"/>
       <c r="B203" s="33"/>
       <c r="C203" s="33"/>
@@ -5332,7 +5332,7 @@
       <c r="N203" s="28"/>
       <c r="O203" s="28"/>
     </row>
-    <row r="204" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A204" s="35"/>
       <c r="B204" s="33"/>
       <c r="C204" s="33"/>
@@ -5349,7 +5349,7 @@
       <c r="N204" s="28"/>
       <c r="O204" s="28"/>
     </row>
-    <row r="205" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A205" s="35"/>
       <c r="B205" s="33"/>
       <c r="C205" s="33"/>
@@ -5366,7 +5366,7 @@
       <c r="N205" s="28"/>
       <c r="O205" s="28"/>
     </row>
-    <row r="206" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A206" s="35"/>
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
@@ -5383,7 +5383,7 @@
       <c r="N206" s="28"/>
       <c r="O206" s="28"/>
     </row>
-    <row r="207" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A207" s="35"/>
       <c r="B207" s="33"/>
       <c r="C207" s="33"/>
@@ -5400,7 +5400,7 @@
       <c r="N207" s="28"/>
       <c r="O207" s="28"/>
     </row>
-    <row r="208" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A208" s="35"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -5417,7 +5417,7 @@
       <c r="N208" s="28"/>
       <c r="O208" s="28"/>
     </row>
-    <row r="209" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A209" s="35"/>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
@@ -5434,7 +5434,7 @@
       <c r="N209" s="28"/>
       <c r="O209" s="28"/>
     </row>
-    <row r="210" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A210" s="35"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -5451,7 +5451,7 @@
       <c r="N210" s="28"/>
       <c r="O210" s="28"/>
     </row>
-    <row r="211" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A211" s="35"/>
       <c r="B211" s="33"/>
       <c r="C211" s="33"/>
@@ -5468,7 +5468,7 @@
       <c r="N211" s="28"/>
       <c r="O211" s="28"/>
     </row>
-    <row r="212" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A212" s="35"/>
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
@@ -5485,7 +5485,7 @@
       <c r="N212" s="28"/>
       <c r="O212" s="28"/>
     </row>
-    <row r="213" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A213" s="35"/>
       <c r="B213" s="33"/>
       <c r="C213" s="33"/>
@@ -5502,7 +5502,7 @@
       <c r="N213" s="28"/>
       <c r="O213" s="28"/>
     </row>
-    <row r="214" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A214" s="35"/>
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
@@ -5519,7 +5519,7 @@
       <c r="N214" s="28"/>
       <c r="O214" s="28"/>
     </row>
-    <row r="215" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A215" s="35"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -5536,7 +5536,7 @@
       <c r="N215" s="28"/>
       <c r="O215" s="28"/>
     </row>
-    <row r="216" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A216" s="35"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
@@ -5553,7 +5553,7 @@
       <c r="N216" s="28"/>
       <c r="O216" s="28"/>
     </row>
-    <row r="217" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A217" s="35"/>
       <c r="B217" s="33"/>
       <c r="C217" s="33"/>
@@ -5570,7 +5570,7 @@
       <c r="N217" s="28"/>
       <c r="O217" s="28"/>
     </row>
-    <row r="218" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A218" s="35"/>
       <c r="B218" s="33"/>
       <c r="C218" s="33"/>
@@ -5587,7 +5587,7 @@
       <c r="N218" s="28"/>
       <c r="O218" s="28"/>
     </row>
-    <row r="219" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A219" s="35"/>
       <c r="B219" s="33"/>
       <c r="C219" s="33"/>
@@ -5604,7 +5604,7 @@
       <c r="N219" s="28"/>
       <c r="O219" s="28"/>
     </row>
-    <row r="220" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A220" s="35"/>
       <c r="B220" s="33"/>
       <c r="C220" s="33"/>
@@ -5621,7 +5621,7 @@
       <c r="N220" s="28"/>
       <c r="O220" s="28"/>
     </row>
-    <row r="221" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A221" s="35"/>
       <c r="B221" s="33"/>
       <c r="C221" s="33"/>
@@ -5638,7 +5638,7 @@
       <c r="N221" s="28"/>
       <c r="O221" s="28"/>
     </row>
-    <row r="222" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A222" s="35"/>
       <c r="B222" s="33"/>
       <c r="C222" s="33"/>
@@ -5655,7 +5655,7 @@
       <c r="N222" s="28"/>
       <c r="O222" s="28"/>
     </row>
-    <row r="223" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A223" s="35"/>
       <c r="B223" s="33"/>
       <c r="C223" s="33"/>
@@ -5672,7 +5672,7 @@
       <c r="N223" s="28"/>
       <c r="O223" s="28"/>
     </row>
-    <row r="224" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A224" s="35"/>
       <c r="B224" s="33"/>
       <c r="C224" s="33"/>
@@ -5689,7 +5689,7 @@
       <c r="N224" s="28"/>
       <c r="O224" s="28"/>
     </row>
-    <row r="225" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A225" s="35"/>
       <c r="B225" s="33"/>
       <c r="C225" s="33"/>
@@ -5706,7 +5706,7 @@
       <c r="N225" s="28"/>
       <c r="O225" s="28"/>
     </row>
-    <row r="226" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A226" s="35"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -5723,7 +5723,7 @@
       <c r="N226" s="28"/>
       <c r="O226" s="28"/>
     </row>
-    <row r="227" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A227" s="35"/>
       <c r="B227" s="33"/>
       <c r="C227" s="33"/>
@@ -5740,7 +5740,7 @@
       <c r="N227" s="28"/>
       <c r="O227" s="28"/>
     </row>
-    <row r="228" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A228" s="35"/>
       <c r="B228" s="33"/>
       <c r="C228" s="33"/>
@@ -5757,7 +5757,7 @@
       <c r="N228" s="28"/>
       <c r="O228" s="28"/>
     </row>
-    <row r="229" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A229" s="35"/>
       <c r="B229" s="33"/>
       <c r="C229" s="33"/>
@@ -5774,7 +5774,7 @@
       <c r="N229" s="28"/>
       <c r="O229" s="28"/>
     </row>
-    <row r="230" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A230" s="35"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
@@ -5791,7 +5791,7 @@
       <c r="N230" s="28"/>
       <c r="O230" s="28"/>
     </row>
-    <row r="231" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A231" s="35"/>
       <c r="B231" s="33"/>
       <c r="C231" s="33"/>
@@ -5808,7 +5808,7 @@
       <c r="N231" s="28"/>
       <c r="O231" s="28"/>
     </row>
-    <row r="232" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A232" s="35"/>
       <c r="B232" s="33"/>
       <c r="C232" s="33"/>
@@ -5825,7 +5825,7 @@
       <c r="N232" s="28"/>
       <c r="O232" s="28"/>
     </row>
-    <row r="233" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A233" s="35"/>
       <c r="B233" s="33"/>
       <c r="C233" s="33"/>
@@ -5842,7 +5842,7 @@
       <c r="N233" s="28"/>
       <c r="O233" s="28"/>
     </row>
-    <row r="234" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A234" s="35"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
@@ -5859,7 +5859,7 @@
       <c r="N234" s="28"/>
       <c r="O234" s="28"/>
     </row>
-    <row r="235" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A235" s="35"/>
       <c r="B235" s="33"/>
       <c r="C235" s="33"/>
@@ -5876,7 +5876,7 @@
       <c r="N235" s="28"/>
       <c r="O235" s="28"/>
     </row>
-    <row r="236" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A236" s="35"/>
       <c r="B236" s="33"/>
       <c r="C236" s="33"/>
@@ -5893,7 +5893,7 @@
       <c r="N236" s="28"/>
       <c r="O236" s="28"/>
     </row>
-    <row r="237" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A237" s="35"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
@@ -5910,7 +5910,7 @@
       <c r="N237" s="28"/>
       <c r="O237" s="28"/>
     </row>
-    <row r="238" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A238" s="35"/>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
@@ -5927,7 +5927,7 @@
       <c r="N238" s="28"/>
       <c r="O238" s="28"/>
     </row>
-    <row r="239" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A239" s="35"/>
       <c r="B239" s="33"/>
       <c r="C239" s="33"/>
@@ -5944,7 +5944,7 @@
       <c r="N239" s="28"/>
       <c r="O239" s="28"/>
     </row>
-    <row r="240" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A240" s="35"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
@@ -5961,7 +5961,7 @@
       <c r="N240" s="28"/>
       <c r="O240" s="28"/>
     </row>
-    <row r="241" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A241" s="35"/>
       <c r="B241" s="33"/>
       <c r="C241" s="33"/>
@@ -5978,7 +5978,7 @@
       <c r="N241" s="28"/>
       <c r="O241" s="28"/>
     </row>
-    <row r="242" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A242" s="35"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -5995,7 +5995,7 @@
       <c r="N242" s="28"/>
       <c r="O242" s="28"/>
     </row>
-    <row r="243" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A243" s="35"/>
       <c r="B243" s="33"/>
       <c r="C243" s="33"/>
@@ -6012,7 +6012,7 @@
       <c r="N243" s="28"/>
       <c r="O243" s="28"/>
     </row>
-    <row r="244" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A244" s="35"/>
       <c r="B244" s="33"/>
       <c r="C244" s="33"/>
@@ -6029,7 +6029,7 @@
       <c r="N244" s="28"/>
       <c r="O244" s="28"/>
     </row>
-    <row r="245" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A245" s="35"/>
       <c r="B245" s="33"/>
       <c r="C245" s="33"/>
@@ -6046,7 +6046,7 @@
       <c r="N245" s="28"/>
       <c r="O245" s="28"/>
     </row>
-    <row r="246" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A246" s="35"/>
       <c r="B246" s="33"/>
       <c r="C246" s="33"/>
@@ -6063,7 +6063,7 @@
       <c r="N246" s="28"/>
       <c r="O246" s="28"/>
     </row>
-    <row r="247" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A247" s="35"/>
       <c r="B247" s="33"/>
       <c r="C247" s="33"/>
@@ -6080,7 +6080,7 @@
       <c r="N247" s="28"/>
       <c r="O247" s="28"/>
     </row>
-    <row r="248" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A248" s="35"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -6097,7 +6097,7 @@
       <c r="N248" s="28"/>
       <c r="O248" s="28"/>
     </row>
-    <row r="249" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A249" s="35"/>
       <c r="B249" s="33"/>
       <c r="C249" s="33"/>
@@ -6114,7 +6114,7 @@
       <c r="N249" s="28"/>
       <c r="O249" s="28"/>
     </row>
-    <row r="250" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A250" s="35"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -6131,7 +6131,7 @@
       <c r="N250" s="28"/>
       <c r="O250" s="28"/>
     </row>
-    <row r="251" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A251" s="35"/>
       <c r="B251" s="33"/>
       <c r="C251" s="33"/>
@@ -6148,7 +6148,7 @@
       <c r="N251" s="28"/>
       <c r="O251" s="28"/>
     </row>
-    <row r="252" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A252" s="35"/>
       <c r="B252" s="33"/>
       <c r="C252" s="33"/>
@@ -6165,7 +6165,7 @@
       <c r="N252" s="28"/>
       <c r="O252" s="28"/>
     </row>
-    <row r="253" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A253" s="35"/>
       <c r="B253" s="33"/>
       <c r="C253" s="33"/>
@@ -6182,7 +6182,7 @@
       <c r="N253" s="28"/>
       <c r="O253" s="28"/>
     </row>
-    <row r="254" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A254" s="35"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -6199,7 +6199,7 @@
       <c r="N254" s="28"/>
       <c r="O254" s="28"/>
     </row>
-    <row r="255" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A255" s="35"/>
       <c r="B255" s="33"/>
       <c r="C255" s="33"/>
@@ -6216,7 +6216,7 @@
       <c r="N255" s="28"/>
       <c r="O255" s="28"/>
     </row>
-    <row r="256" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A256" s="35"/>
       <c r="B256" s="33"/>
       <c r="C256" s="33"/>
@@ -6233,7 +6233,7 @@
       <c r="N256" s="28"/>
       <c r="O256" s="28"/>
     </row>
-    <row r="257" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A257" s="35"/>
       <c r="B257" s="33"/>
       <c r="C257" s="33"/>
@@ -6250,7 +6250,7 @@
       <c r="N257" s="28"/>
       <c r="O257" s="28"/>
     </row>
-    <row r="258" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A258" s="35"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
@@ -6267,7 +6267,7 @@
       <c r="N258" s="28"/>
       <c r="O258" s="28"/>
     </row>
-    <row r="259" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A259" s="35"/>
       <c r="B259" s="33"/>
       <c r="C259" s="33"/>
@@ -6284,7 +6284,7 @@
       <c r="N259" s="28"/>
       <c r="O259" s="28"/>
     </row>
-    <row r="260" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A260" s="35"/>
       <c r="B260" s="33"/>
       <c r="C260" s="33"/>
@@ -6301,7 +6301,7 @@
       <c r="N260" s="28"/>
       <c r="O260" s="28"/>
     </row>
-    <row r="261" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A261" s="35"/>
       <c r="B261" s="33"/>
       <c r="C261" s="33"/>
@@ -6318,7 +6318,7 @@
       <c r="N261" s="28"/>
       <c r="O261" s="28"/>
     </row>
-    <row r="262" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A262" s="35"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
@@ -6335,7 +6335,7 @@
       <c r="N262" s="28"/>
       <c r="O262" s="28"/>
     </row>
-    <row r="263" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A263" s="35"/>
       <c r="B263" s="33"/>
       <c r="C263" s="33"/>
@@ -6352,7 +6352,7 @@
       <c r="N263" s="28"/>
       <c r="O263" s="28"/>
     </row>
-    <row r="264" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A264" s="35"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
@@ -6369,7 +6369,7 @@
       <c r="N264" s="28"/>
       <c r="O264" s="28"/>
     </row>
-    <row r="265" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A265" s="35"/>
       <c r="B265" s="33"/>
       <c r="C265" s="33"/>
@@ -6386,7 +6386,7 @@
       <c r="N265" s="28"/>
       <c r="O265" s="28"/>
     </row>
-    <row r="266" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A266" s="35"/>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -6403,7 +6403,7 @@
       <c r="N266" s="28"/>
       <c r="O266" s="28"/>
     </row>
-    <row r="267" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A267" s="35"/>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
@@ -6420,7 +6420,7 @@
       <c r="N267" s="28"/>
       <c r="O267" s="28"/>
     </row>
-    <row r="268" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A268" s="35"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33"/>
@@ -6437,7 +6437,7 @@
       <c r="N268" s="28"/>
       <c r="O268" s="28"/>
     </row>
-    <row r="269" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A269" s="35"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -6454,7 +6454,7 @@
       <c r="N269" s="28"/>
       <c r="O269" s="28"/>
     </row>
-    <row r="270" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A270" s="35"/>
       <c r="B270" s="33"/>
       <c r="C270" s="33"/>
@@ -6471,7 +6471,7 @@
       <c r="N270" s="28"/>
       <c r="O270" s="28"/>
     </row>
-    <row r="271" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A271" s="35"/>
       <c r="B271" s="33"/>
       <c r="C271" s="33"/>
@@ -6488,7 +6488,7 @@
       <c r="N271" s="28"/>
       <c r="O271" s="28"/>
     </row>
-    <row r="272" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A272" s="35"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
@@ -6505,7 +6505,7 @@
       <c r="N272" s="28"/>
       <c r="O272" s="28"/>
     </row>
-    <row r="273" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A273" s="35"/>
       <c r="B273" s="33"/>
       <c r="C273" s="33"/>
@@ -6522,7 +6522,7 @@
       <c r="N273" s="28"/>
       <c r="O273" s="28"/>
     </row>
-    <row r="274" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A274" s="35"/>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
@@ -6539,7 +6539,7 @@
       <c r="N274" s="28"/>
       <c r="O274" s="28"/>
     </row>
-    <row r="275" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A275" s="35"/>
       <c r="B275" s="33"/>
       <c r="C275" s="33"/>
@@ -6556,7 +6556,7 @@
       <c r="N275" s="28"/>
       <c r="O275" s="28"/>
     </row>
-    <row r="276" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A276" s="35"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
@@ -6573,7 +6573,7 @@
       <c r="N276" s="28"/>
       <c r="O276" s="28"/>
     </row>
-    <row r="277" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A277" s="35"/>
       <c r="B277" s="33"/>
       <c r="C277" s="33"/>
@@ -6590,7 +6590,7 @@
       <c r="N277" s="28"/>
       <c r="O277" s="28"/>
     </row>
-    <row r="278" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A278" s="35"/>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
@@ -6607,7 +6607,7 @@
       <c r="N278" s="28"/>
       <c r="O278" s="28"/>
     </row>
-    <row r="279" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A279" s="35"/>
       <c r="B279" s="33"/>
       <c r="C279" s="33"/>
@@ -6624,7 +6624,7 @@
       <c r="N279" s="28"/>
       <c r="O279" s="28"/>
     </row>
-    <row r="280" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A280" s="35"/>
       <c r="B280" s="33"/>
       <c r="C280" s="33"/>
@@ -6641,7 +6641,7 @@
       <c r="N280" s="28"/>
       <c r="O280" s="28"/>
     </row>
-    <row r="281" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A281" s="35"/>
       <c r="B281" s="33"/>
       <c r="C281" s="33"/>
@@ -6658,7 +6658,7 @@
       <c r="N281" s="28"/>
       <c r="O281" s="28"/>
     </row>
-    <row r="282" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A282" s="35"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
@@ -6675,7 +6675,7 @@
       <c r="N282" s="28"/>
       <c r="O282" s="28"/>
     </row>
-    <row r="283" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A283" s="35"/>
       <c r="B283" s="33"/>
       <c r="C283" s="33"/>
@@ -6692,7 +6692,7 @@
       <c r="N283" s="28"/>
       <c r="O283" s="28"/>
     </row>
-    <row r="284" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A284" s="35"/>
       <c r="B284" s="33"/>
       <c r="C284" s="33"/>
@@ -6709,7 +6709,7 @@
       <c r="N284" s="28"/>
       <c r="O284" s="28"/>
     </row>
-    <row r="285" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A285" s="35"/>
       <c r="B285" s="33"/>
       <c r="C285" s="33"/>
@@ -6726,7 +6726,7 @@
       <c r="N285" s="28"/>
       <c r="O285" s="28"/>
     </row>
-    <row r="286" spans="1:15" s="7" customFormat="1" ht="85.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" s="7" customFormat="1" ht="85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A286" s="35"/>
       <c r="B286" s="33"/>
       <c r="C286" s="33"/>
@@ -6743,23 +6743,23 @@
       <c r="N286" s="28"/>
       <c r="O286" s="28"/>
     </row>
-    <row r="287" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="27"/>
       <c r="B287" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
-      <c r="E287" s="73" t="s">
+      <c r="E287" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F287" s="73"/>
-      <c r="G287" s="73"/>
-      <c r="H287" s="73"/>
-      <c r="I287" s="74">
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="68">
         <v>291541.00000000012</v>
       </c>
-      <c r="J287" s="74"/>
+      <c r="J287" s="68"/>
       <c r="K287" s="24"/>
       <c r="L287" s="23">
         <v>6</v>
@@ -6774,23 +6774,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="17"/>
       <c r="B288" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
-      <c r="E288" s="75" t="s">
+      <c r="E288" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F288" s="75"/>
-      <c r="G288" s="75"/>
-      <c r="H288" s="75"/>
-      <c r="I288" s="76">
+      <c r="F288" s="61"/>
+      <c r="G288" s="61"/>
+      <c r="H288" s="61"/>
+      <c r="I288" s="62">
         <v>108286</v>
       </c>
-      <c r="J288" s="76"/>
+      <c r="J288" s="62"/>
       <c r="K288" s="14"/>
       <c r="L288" s="22">
         <v>555</v>
@@ -6805,81 +6805,81 @@
         <v>555</v>
       </c>
     </row>
-    <row r="289" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="17"/>
       <c r="B289" s="21"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
-      <c r="E289" s="75" t="s">
+      <c r="E289" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F289" s="75"/>
-      <c r="G289" s="75"/>
-      <c r="H289" s="75"/>
-      <c r="I289" s="76" t="s">
+      <c r="F289" s="61"/>
+      <c r="G289" s="61"/>
+      <c r="H289" s="61"/>
+      <c r="I289" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J289" s="76"/>
+      <c r="J289" s="62"/>
       <c r="K289" s="14"/>
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
     </row>
-    <row r="290" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="17"/>
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
-      <c r="E290" s="75" t="s">
+      <c r="E290" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F290" s="75"/>
-      <c r="G290" s="75"/>
-      <c r="H290" s="75"/>
-      <c r="I290" s="76" t="s">
+      <c r="F290" s="61"/>
+      <c r="G290" s="61"/>
+      <c r="H290" s="61"/>
+      <c r="I290" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J290" s="76"/>
-      <c r="K290" s="77"/>
-      <c r="L290" s="78"/>
-    </row>
-    <row r="291" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J290" s="62"/>
+      <c r="K290" s="65"/>
+      <c r="L290" s="66"/>
+    </row>
+    <row r="291" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="17"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
-      <c r="E291" s="75" t="s">
+      <c r="E291" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F291" s="75"/>
-      <c r="G291" s="75"/>
-      <c r="H291" s="75"/>
-      <c r="I291" s="76" t="s">
+      <c r="F291" s="61"/>
+      <c r="G291" s="61"/>
+      <c r="H291" s="61"/>
+      <c r="I291" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J291" s="76"/>
+      <c r="J291" s="62"/>
       <c r="K291" s="19"/>
       <c r="L291" s="18"/>
       <c r="M291" s="18"/>
       <c r="N291" s="18"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="17"/>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="E292" s="15"/>
-      <c r="F292" s="75" t="s">
+      <c r="F292" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G292" s="75"/>
-      <c r="H292" s="75"/>
-      <c r="I292" s="76" t="s">
+      <c r="G292" s="61"/>
+      <c r="H292" s="61"/>
+      <c r="I292" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J292" s="76"/>
+      <c r="J292" s="62"/>
       <c r="K292" s="14"/>
       <c r="L292" s="13">
         <v>287.90000000000003</v>
@@ -6894,28 +6894,28 @@
         <v>287.90000000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:15" s="7" customFormat="1" ht="19.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="12"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="10"/>
-      <c r="F293" s="79" t="s">
+      <c r="F293" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G293" s="79"/>
-      <c r="H293" s="79"/>
-      <c r="I293" s="80">
+      <c r="G293" s="63"/>
+      <c r="H293" s="63"/>
+      <c r="I293" s="64">
         <v>399827.00000000012</v>
       </c>
-      <c r="J293" s="80"/>
+      <c r="J293" s="64"/>
       <c r="K293" s="9"/>
       <c r="L293" s="8"/>
       <c r="M293" s="8"/>
       <c r="N293" s="8"/>
       <c r="O293" s="8"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A295" s="6" t="s">
         <v>9</v>
       </c>
@@ -6923,295 +6923,295 @@
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A296" s="4">
         <v>1</v>
       </c>
-      <c r="B296" s="81" t="s">
+      <c r="B296" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C296" s="81"/>
-      <c r="D296" s="81"/>
-      <c r="E296" s="81"/>
-      <c r="F296" s="81"/>
-      <c r="G296" s="81"/>
-      <c r="H296" s="81"/>
-      <c r="I296" s="81"/>
-      <c r="J296" s="81"/>
-      <c r="K296" s="81"/>
-      <c r="L296" s="81"/>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C296" s="59"/>
+      <c r="D296" s="59"/>
+      <c r="E296" s="59"/>
+      <c r="F296" s="59"/>
+      <c r="G296" s="59"/>
+      <c r="H296" s="59"/>
+      <c r="I296" s="59"/>
+      <c r="J296" s="59"/>
+      <c r="K296" s="59"/>
+      <c r="L296" s="59"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A297" s="4">
         <v>2</v>
       </c>
-      <c r="B297" s="81" t="s">
+      <c r="B297" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C297" s="81"/>
-      <c r="D297" s="81"/>
-      <c r="E297" s="81"/>
-      <c r="F297" s="81"/>
-      <c r="G297" s="81"/>
-      <c r="H297" s="81"/>
-      <c r="I297" s="81"/>
-      <c r="J297" s="81"/>
-      <c r="K297" s="81"/>
-      <c r="L297" s="81"/>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C297" s="59"/>
+      <c r="D297" s="59"/>
+      <c r="E297" s="59"/>
+      <c r="F297" s="59"/>
+      <c r="G297" s="59"/>
+      <c r="H297" s="59"/>
+      <c r="I297" s="59"/>
+      <c r="J297" s="59"/>
+      <c r="K297" s="59"/>
+      <c r="L297" s="59"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A298" s="4">
         <v>3</v>
       </c>
-      <c r="B298" s="81" t="s">
+      <c r="B298" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C298" s="81"/>
-      <c r="D298" s="81"/>
-      <c r="E298" s="81"/>
-      <c r="F298" s="81"/>
-      <c r="G298" s="81"/>
-      <c r="H298" s="81"/>
-      <c r="I298" s="81"/>
-      <c r="J298" s="81"/>
-      <c r="K298" s="81"/>
-      <c r="L298" s="81"/>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C298" s="59"/>
+      <c r="D298" s="59"/>
+      <c r="E298" s="59"/>
+      <c r="F298" s="59"/>
+      <c r="G298" s="59"/>
+      <c r="H298" s="59"/>
+      <c r="I298" s="59"/>
+      <c r="J298" s="59"/>
+      <c r="K298" s="59"/>
+      <c r="L298" s="59"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A299" s="4">
         <v>4</v>
       </c>
-      <c r="B299" s="81" t="s">
+      <c r="B299" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C299" s="81"/>
-      <c r="D299" s="81"/>
-      <c r="E299" s="81"/>
-      <c r="F299" s="81"/>
-      <c r="G299" s="81"/>
-      <c r="H299" s="81"/>
-      <c r="I299" s="81"/>
-      <c r="J299" s="81"/>
-      <c r="K299" s="81"/>
-      <c r="L299" s="81"/>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C299" s="59"/>
+      <c r="D299" s="59"/>
+      <c r="E299" s="59"/>
+      <c r="F299" s="59"/>
+      <c r="G299" s="59"/>
+      <c r="H299" s="59"/>
+      <c r="I299" s="59"/>
+      <c r="J299" s="59"/>
+      <c r="K299" s="59"/>
+      <c r="L299" s="59"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A300" s="4">
         <v>5</v>
       </c>
-      <c r="B300" s="81" t="s">
+      <c r="B300" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C300" s="81"/>
-      <c r="D300" s="81"/>
-      <c r="E300" s="81"/>
-      <c r="F300" s="81"/>
-      <c r="G300" s="81"/>
-      <c r="H300" s="81"/>
-      <c r="I300" s="81"/>
-      <c r="J300" s="81"/>
-      <c r="K300" s="81"/>
-      <c r="L300" s="81"/>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C300" s="59"/>
+      <c r="D300" s="59"/>
+      <c r="E300" s="59"/>
+      <c r="F300" s="59"/>
+      <c r="G300" s="59"/>
+      <c r="H300" s="59"/>
+      <c r="I300" s="59"/>
+      <c r="J300" s="59"/>
+      <c r="K300" s="59"/>
+      <c r="L300" s="59"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A301" s="4">
         <v>6</v>
       </c>
-      <c r="B301" s="82" t="s">
+      <c r="B301" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C301" s="82"/>
-      <c r="D301" s="82"/>
-      <c r="E301" s="82"/>
-      <c r="F301" s="82"/>
-      <c r="G301" s="82"/>
-      <c r="H301" s="82"/>
-      <c r="I301" s="82"/>
-      <c r="J301" s="82"/>
-      <c r="K301" s="82"/>
-      <c r="L301" s="82"/>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C301" s="60"/>
+      <c r="D301" s="60"/>
+      <c r="E301" s="60"/>
+      <c r="F301" s="60"/>
+      <c r="G301" s="60"/>
+      <c r="H301" s="60"/>
+      <c r="I301" s="60"/>
+      <c r="J301" s="60"/>
+      <c r="K301" s="60"/>
+      <c r="L301" s="60"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A302" s="4">
         <v>7</v>
       </c>
-      <c r="B302" s="81" t="s">
+      <c r="B302" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C302" s="81"/>
-      <c r="D302" s="81"/>
-      <c r="E302" s="81"/>
-      <c r="F302" s="81"/>
-      <c r="G302" s="81"/>
-      <c r="H302" s="81"/>
-      <c r="I302" s="81"/>
-      <c r="J302" s="81"/>
-      <c r="K302" s="81"/>
-      <c r="L302" s="81"/>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C302" s="59"/>
+      <c r="D302" s="59"/>
+      <c r="E302" s="59"/>
+      <c r="F302" s="59"/>
+      <c r="G302" s="59"/>
+      <c r="H302" s="59"/>
+      <c r="I302" s="59"/>
+      <c r="J302" s="59"/>
+      <c r="K302" s="59"/>
+      <c r="L302" s="59"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A303" s="4">
         <v>8</v>
       </c>
-      <c r="B303" s="81" t="s">
+      <c r="B303" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C303" s="81"/>
-      <c r="D303" s="81"/>
-      <c r="E303" s="81"/>
-      <c r="F303" s="81"/>
-      <c r="G303" s="81"/>
-      <c r="H303" s="81"/>
-      <c r="I303" s="81"/>
-      <c r="J303" s="81"/>
-      <c r="K303" s="81"/>
-      <c r="L303" s="81"/>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C303" s="59"/>
+      <c r="D303" s="59"/>
+      <c r="E303" s="59"/>
+      <c r="F303" s="59"/>
+      <c r="G303" s="59"/>
+      <c r="H303" s="59"/>
+      <c r="I303" s="59"/>
+      <c r="J303" s="59"/>
+      <c r="K303" s="59"/>
+      <c r="L303" s="59"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A304" s="4">
         <v>9</v>
       </c>
-      <c r="B304" s="81" t="s">
+      <c r="B304" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C304" s="81"/>
-      <c r="D304" s="81"/>
-      <c r="E304" s="81"/>
-      <c r="F304" s="81"/>
-      <c r="G304" s="81"/>
-      <c r="H304" s="81"/>
-      <c r="I304" s="81"/>
-      <c r="J304" s="81"/>
-      <c r="K304" s="81"/>
-      <c r="L304" s="81"/>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C304" s="59"/>
+      <c r="D304" s="59"/>
+      <c r="E304" s="59"/>
+      <c r="F304" s="59"/>
+      <c r="G304" s="59"/>
+      <c r="H304" s="59"/>
+      <c r="I304" s="59"/>
+      <c r="J304" s="59"/>
+      <c r="K304" s="59"/>
+      <c r="L304" s="59"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A305" s="4">
         <v>10</v>
       </c>
-      <c r="B305" s="81" t="s">
+      <c r="B305" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C305" s="81"/>
-      <c r="D305" s="81"/>
-      <c r="E305" s="81"/>
-      <c r="F305" s="81"/>
-      <c r="G305" s="81"/>
-      <c r="H305" s="81"/>
-      <c r="I305" s="81"/>
-      <c r="J305" s="81"/>
-      <c r="K305" s="81"/>
-      <c r="L305" s="81"/>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C305" s="59"/>
+      <c r="D305" s="59"/>
+      <c r="E305" s="59"/>
+      <c r="F305" s="59"/>
+      <c r="G305" s="59"/>
+      <c r="H305" s="59"/>
+      <c r="I305" s="59"/>
+      <c r="J305" s="59"/>
+      <c r="K305" s="59"/>
+      <c r="L305" s="59"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A306" s="4">
         <v>11</v>
       </c>
-      <c r="B306" s="81" t="s">
+      <c r="B306" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C306" s="81"/>
-      <c r="D306" s="81"/>
-      <c r="E306" s="81"/>
-      <c r="F306" s="81"/>
-      <c r="G306" s="81"/>
-      <c r="H306" s="81"/>
-      <c r="I306" s="81"/>
-      <c r="J306" s="81"/>
-      <c r="K306" s="81"/>
-      <c r="L306" s="81"/>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C306" s="59"/>
+      <c r="D306" s="59"/>
+      <c r="E306" s="59"/>
+      <c r="F306" s="59"/>
+      <c r="G306" s="59"/>
+      <c r="H306" s="59"/>
+      <c r="I306" s="59"/>
+      <c r="J306" s="59"/>
+      <c r="K306" s="59"/>
+      <c r="L306" s="59"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A307" s="4">
         <v>12</v>
       </c>
-      <c r="B307" s="81" t="s">
+      <c r="B307" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C307" s="81"/>
-      <c r="D307" s="81"/>
-      <c r="E307" s="81"/>
-      <c r="F307" s="81"/>
-      <c r="G307" s="81"/>
-      <c r="H307" s="81"/>
-      <c r="I307" s="81"/>
-      <c r="J307" s="81"/>
-      <c r="K307" s="81"/>
-      <c r="L307" s="81"/>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C307" s="59"/>
+      <c r="D307" s="59"/>
+      <c r="E307" s="59"/>
+      <c r="F307" s="59"/>
+      <c r="G307" s="59"/>
+      <c r="H307" s="59"/>
+      <c r="I307" s="59"/>
+      <c r="J307" s="59"/>
+      <c r="K307" s="59"/>
+      <c r="L307" s="59"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A308" s="4">
         <v>13</v>
       </c>
-      <c r="B308" s="81" t="s">
+      <c r="B308" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C308" s="81"/>
-      <c r="D308" s="81"/>
-      <c r="E308" s="81"/>
-      <c r="F308" s="81"/>
-      <c r="G308" s="81"/>
-      <c r="H308" s="81"/>
-      <c r="I308" s="81"/>
-      <c r="J308" s="81"/>
-      <c r="K308" s="81"/>
-      <c r="L308" s="81"/>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C308" s="59"/>
+      <c r="D308" s="59"/>
+      <c r="E308" s="59"/>
+      <c r="F308" s="59"/>
+      <c r="G308" s="59"/>
+      <c r="H308" s="59"/>
+      <c r="I308" s="59"/>
+      <c r="J308" s="59"/>
+      <c r="K308" s="59"/>
+      <c r="L308" s="59"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A309" s="4">
         <v>14</v>
       </c>
-      <c r="B309" s="81" t="s">
+      <c r="B309" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C309" s="81"/>
-      <c r="D309" s="81"/>
-      <c r="E309" s="81"/>
-      <c r="F309" s="81"/>
-      <c r="G309" s="81"/>
-      <c r="H309" s="81"/>
-      <c r="I309" s="81"/>
-      <c r="J309" s="81"/>
-      <c r="K309" s="81"/>
-      <c r="L309" s="81"/>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C309" s="59"/>
+      <c r="D309" s="59"/>
+      <c r="E309" s="59"/>
+      <c r="F309" s="59"/>
+      <c r="G309" s="59"/>
+      <c r="H309" s="59"/>
+      <c r="I309" s="59"/>
+      <c r="J309" s="59"/>
+      <c r="K309" s="59"/>
+      <c r="L309" s="59"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A310" s="4">
         <v>15</v>
       </c>
-      <c r="B310" s="81" t="s">
+      <c r="B310" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C310" s="81"/>
-      <c r="D310" s="81"/>
-      <c r="E310" s="81"/>
-      <c r="F310" s="81"/>
-      <c r="G310" s="81"/>
-      <c r="H310" s="81"/>
-      <c r="I310" s="81"/>
-      <c r="J310" s="81"/>
-      <c r="K310" s="81"/>
-      <c r="L310" s="81"/>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C310" s="59"/>
+      <c r="D310" s="59"/>
+      <c r="E310" s="59"/>
+      <c r="F310" s="59"/>
+      <c r="G310" s="59"/>
+      <c r="H310" s="59"/>
+      <c r="I310" s="59"/>
+      <c r="J310" s="59"/>
+      <c r="K310" s="59"/>
+      <c r="L310" s="59"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A311" s="4">
         <v>16</v>
       </c>
-      <c r="B311" s="81" t="s">
+      <c r="B311" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C311" s="81"/>
-      <c r="D311" s="81"/>
-      <c r="E311" s="81"/>
-      <c r="F311" s="81"/>
-      <c r="G311" s="81"/>
-      <c r="H311" s="81"/>
-      <c r="I311" s="81"/>
-      <c r="J311" s="81"/>
-      <c r="K311" s="81"/>
-      <c r="L311" s="81"/>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C311" s="59"/>
+      <c r="D311" s="59"/>
+      <c r="E311" s="59"/>
+      <c r="F311" s="59"/>
+      <c r="G311" s="59"/>
+      <c r="H311" s="59"/>
+      <c r="I311" s="59"/>
+      <c r="J311" s="59"/>
+      <c r="K311" s="59"/>
+      <c r="L311" s="59"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -7230,57 +7230,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="B302:L302"/>
-    <mergeCell ref="B303:L303"/>
-    <mergeCell ref="B309:L309"/>
-    <mergeCell ref="B310:L310"/>
-    <mergeCell ref="B311:L311"/>
-    <mergeCell ref="B304:L304"/>
-    <mergeCell ref="B305:L305"/>
-    <mergeCell ref="B306:L306"/>
-    <mergeCell ref="B307:L307"/>
-    <mergeCell ref="B308:L308"/>
-    <mergeCell ref="B297:L297"/>
-    <mergeCell ref="B298:L298"/>
-    <mergeCell ref="B299:L299"/>
-    <mergeCell ref="B300:L300"/>
-    <mergeCell ref="B301:L301"/>
-    <mergeCell ref="F292:H292"/>
-    <mergeCell ref="I292:J292"/>
-    <mergeCell ref="F293:H293"/>
-    <mergeCell ref="I293:J293"/>
-    <mergeCell ref="B296:L296"/>
-    <mergeCell ref="E290:H290"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="K290:L290"/>
-    <mergeCell ref="E291:H291"/>
-    <mergeCell ref="I291:J291"/>
-    <mergeCell ref="E287:H287"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="E288:H288"/>
-    <mergeCell ref="I288:J288"/>
-    <mergeCell ref="E289:H289"/>
-    <mergeCell ref="I289:J289"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="B1:E4"/>
@@ -7297,6 +7246,57 @@
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="K290:L290"/>
+    <mergeCell ref="E291:H291"/>
+    <mergeCell ref="I291:J291"/>
+    <mergeCell ref="E287:H287"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="E288:H288"/>
+    <mergeCell ref="I288:J288"/>
+    <mergeCell ref="E289:H289"/>
+    <mergeCell ref="I289:J289"/>
+    <mergeCell ref="B311:L311"/>
+    <mergeCell ref="B304:L304"/>
+    <mergeCell ref="B305:L305"/>
+    <mergeCell ref="B306:L306"/>
+    <mergeCell ref="B307:L307"/>
+    <mergeCell ref="B308:L308"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="B302:L302"/>
+    <mergeCell ref="B303:L303"/>
+    <mergeCell ref="B309:L309"/>
+    <mergeCell ref="B310:L310"/>
+    <mergeCell ref="B297:L297"/>
+    <mergeCell ref="B298:L298"/>
+    <mergeCell ref="B299:L299"/>
+    <mergeCell ref="B300:L300"/>
+    <mergeCell ref="B301:L301"/>
+    <mergeCell ref="F292:H292"/>
+    <mergeCell ref="I292:J292"/>
+    <mergeCell ref="F293:H293"/>
+    <mergeCell ref="I293:J293"/>
+    <mergeCell ref="B296:L296"/>
+    <mergeCell ref="E290:H290"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="H18:I286 I287:J293">
@@ -7355,7 +7355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.350000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
